--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1782106.417958721</v>
+        <v>-1785022.015051049</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>160.9271104665245</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>59.01177817175181</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>11.6788446020113</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>5.340253406636014</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>79.36840831334658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>257.1153981074154</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.74619059787253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>163.1177628947569</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>22.35469023093728</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>93.23956689310469</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>128.7282531589278</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1424,10 +1424,10 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>249.3718516103037</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>326.2152140927927</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.1654303178665</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>45.10632051819468</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695473</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T14" t="n">
         <v>199.022230457616</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128534</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364132</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
         <v>225.7478006422472</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>83.06560892429339</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856548</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012119</v>
+        <v>66.37524671012159</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>117.4665281367419</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>1.255571502167759</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>127.6210071331219</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824998</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>108.9501037550972</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>171.9586765026952</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2953,10 +2953,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1526.106027515566</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C2" t="n">
-        <v>1526.106027515566</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>1526.106027515566</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2363.877877781635</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2363.877877781635</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>2011.109222511521</v>
       </c>
       <c r="X2" t="n">
-        <v>1916.245359491378</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="Y2" t="n">
-        <v>1526.106027515566</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,43 +4492,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>274.7355609638946</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.4755035807</v>
+        <v>1924.457674141023</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>1555.495157200611</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1197.229458593861</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>811.4412059956167</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>400.4553012060091</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>386.5318971446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>59.33717718060285</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y5" t="n">
-        <v>1328.4755035807</v>
+        <v>2311.057514205145</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5993065148977</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5993065148977</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5993065148977</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W7" t="n">
-        <v>290.5651556036578</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X7" t="n">
-        <v>290.5651556036578</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.5993065148977</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1560.797780174034</v>
+        <v>1684.117239186542</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>1315.154722246131</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>956.8890236393802</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>956.8890236393802</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>545.9031188497727</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2498.391108149628</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2244.629322787719</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1913.566435444148</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>1560.797780174034</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>1560.797780174034</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y8" t="n">
-        <v>1560.797780174034</v>
+        <v>2070.717079250664</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,13 +4884,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>148.1243625204702</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.7922583306645</v>
+        <v>329.7728273507099</v>
       </c>
     </row>
     <row r="11">
@@ -5048,7 +5048,7 @@
         <v>1462.462702840541</v>
       </c>
       <c r="M11" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.467264779579</v>
       </c>
       <c r="N11" t="n">
         <v>2969.999193969362</v>
@@ -5072,7 +5072,7 @@
         <v>4404.156740844761</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.265981642434</v>
+        <v>4150.71341156431</v>
       </c>
       <c r="V11" t="n">
         <v>3821.203094298863</v>
@@ -5118,19 +5118,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4646447998178</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>571.9733873631765</v>
       </c>
       <c r="L12" t="n">
-        <v>584.5489958917231</v>
+        <v>1062.705720206928</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.56735014385</v>
+        <v>1281.539913781472</v>
       </c>
       <c r="N12" t="n">
-        <v>1798.663313543187</v>
+        <v>1903.635877180809</v>
       </c>
       <c r="O12" t="n">
         <v>1903.635877180809</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>495.0640298439646</v>
+        <v>932.1761290305008</v>
       </c>
       <c r="C13" t="n">
-        <v>495.0640298439646</v>
+        <v>763.2399461025939</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9473904316288</v>
+        <v>613.1233066902581</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9473904316288</v>
+        <v>465.210213107865</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9473904316288</v>
+        <v>318.3202656099546</v>
       </c>
       <c r="G13" t="n">
-        <v>235.6893800095415</v>
+        <v>318.3202656099546</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>176.447548648385</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5233,16 +5233,16 @@
         <v>1669.596282958599</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.911794752712</v>
+        <v>1624.034343041231</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.494624715752</v>
+        <v>1334.61717300427</v>
       </c>
       <c r="X13" t="n">
-        <v>897.5050738177345</v>
+        <v>1334.61717300427</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.7124946742043</v>
+        <v>1113.82459386074</v>
       </c>
     </row>
     <row r="14">
@@ -5261,49 +5261,49 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192692</v>
+        <v>95.34095638192612</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111745</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075868</v>
+        <v>852.8523611075818</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332397</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014793</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355955</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068032</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694733</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,7 +5312,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5331,58 +5331,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300127</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028055</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273949</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803954</v>
+        <v>243.4633055756268</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516181</v>
+        <v>577.3880777468478</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516181</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578173</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.131916132783</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190819</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.79962768589</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
         <v>2244.643795685161</v>
@@ -5400,7 +5400,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.853600740083</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121762</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121762</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782965</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038362</v>
+        <v>435.7419440038347</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179778</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279811</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580271</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832674</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487579</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051052</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854718</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648831</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561187</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138529</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703228</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5601,16 +5601,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>633.992644467967</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>486.0795508855739</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1198.22892174168</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>984.9192356072716</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>815.9830526793647</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>665.866413267029</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>517.9533196846359</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>371.0633721867255</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>203.8672729016054</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -6072,22 +6072,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>390.823249958218</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2023.366912656562</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1734.29168600076</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1479.607197794873</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115003</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,46 +6385,46 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380725</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,13 +6634,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150023</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384015</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,31 +7114,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345482</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384014</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380734</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311328</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1804.131916132773</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7795,7 +7795,7 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,7 +8459,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8696,10 +8696,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>49.74439522492685</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>49.74439522492673</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-2.808159492159352e-11</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>-2.604215442929144e-12</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10352,10 +10352,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-5.171070992361669e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>221.0032596057372</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.14341647734243</v>
+        <v>192.2123893365375</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,22 +22711,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>240.4587987218167</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>30.73842034076182</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.537044377342596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.537044377342227</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.37662255930046</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>207.0313228056333</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>63.36835372227578</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856521</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>134.6711151870861</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>144.1654765207635</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>98.0886482559152</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>31.34460909112669</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>45.44677382459309</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81225.52431657694</v>
+        <v>81225.52431657692</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26335,22 +26335,22 @@
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="K2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="L2" t="n">
         <v>102630.2212330356</v>
       </c>
-      <c r="K2" t="n">
-        <v>102630.2212330356</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>102630.2212330355</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="O2" t="n">
         <v>102630.2212330354</v>
-      </c>
-      <c r="N2" t="n">
-        <v>102630.2212330354</v>
-      </c>
-      <c r="O2" t="n">
-        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936391.4095185974</v>
+        <v>936391.4095185975</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.637614955742</v>
+        <v>7852.637614951788</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.92961533011597e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103327.7358282892</v>
+        <v>103327.7358282893</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,13 +26424,13 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.938886718172</v>
+        <v>5759.93888671817</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670019</v>
+        <v>5067.592601670375</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670451</v>
+        <v>5067.59260167044</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
@@ -26439,22 +26439,22 @@
         <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="K4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="L4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.45186476388</v>
       </c>
       <c r="M4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="N4" t="n">
         <v>13058.45186476391</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
         <v>13058.45186476391</v>
@@ -26479,7 +26479,7 @@
         <v>100905.9587784758</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-694929.1687896663</v>
+        <v>-695357.2627279954</v>
       </c>
       <c r="C6" t="n">
         <v>-181293.3627581056</v>
@@ -26528,40 +26528,40 @@
         <v>-181293.3627581056</v>
       </c>
       <c r="E6" t="n">
-        <v>-942237.228635526</v>
+        <v>-942273.4314892216</v>
       </c>
       <c r="F6" t="n">
-        <v>-13149.43507928221</v>
+        <v>-13184.17300471423</v>
       </c>
       <c r="G6" t="n">
-        <v>-5296.797464322197</v>
+        <v>-5331.535389761761</v>
       </c>
       <c r="H6" t="n">
-        <v>-5296.797464326766</v>
+        <v>-5331.535389762459</v>
       </c>
       <c r="I6" t="n">
-        <v>-5296.797464326766</v>
+        <v>-5331.535389762459</v>
       </c>
       <c r="J6" t="n">
-        <v>-209443.2836718684</v>
+        <v>-209443.2836718686</v>
       </c>
       <c r="K6" t="n">
-        <v>-13592.34648564376</v>
+        <v>-13592.34648564382</v>
       </c>
       <c r="L6" t="n">
-        <v>-13592.34648564387</v>
+        <v>-13592.34648564369</v>
       </c>
       <c r="M6" t="n">
-        <v>-137800.8571937024</v>
+        <v>-137800.8571937023</v>
       </c>
       <c r="N6" t="n">
-        <v>-13592.34648564391</v>
+        <v>-13592.34648564385</v>
       </c>
       <c r="O6" t="n">
-        <v>-33020.06447927558</v>
+        <v>-33020.06447927566</v>
       </c>
       <c r="P6" t="n">
-        <v>-13592.34648564384</v>
+        <v>-13592.34648564382</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26747,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.97550034168</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.297384499299</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625294287</v>
+        <v>9.934451625289284</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.346655122646029e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>198.0807510309469</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>66.18773434648526</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>146.5910628382252</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>306.869530342707</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>29.40760022917561</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>196.8384627542223</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>250.6664071260381</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>194.0936301267205</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>74.00725420552314</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>89.85640019316702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31838,22 +31838,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>363.178673896306</v>
       </c>
       <c r="N12" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>248.629137007699</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982453</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348457</v>
+        <v>5.499398996348438</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135365</v>
+        <v>56.32071997135345</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067241</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663304</v>
+        <v>466.7546155663287</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817607</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L14" t="n">
-        <v>867.84640711626</v>
+        <v>867.8464071162568</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175718</v>
+        <v>965.6463440175683</v>
       </c>
       <c r="N14" t="n">
-        <v>981.271511415947</v>
+        <v>981.2715114159433</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460069</v>
+        <v>926.5868626460035</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236542</v>
+        <v>790.8204499236514</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669249</v>
+        <v>593.8732233669227</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043741</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292906</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651539</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078765</v>
+        <v>0.4399519197078749</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659463</v>
+        <v>2.942437868659452</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521113</v>
+        <v>28.41775520521103</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007754</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420767</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422607</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473078</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862155</v>
+        <v>652.0478969157679</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071819</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>235.5705495535715</v>
+        <v>700.0808204437249</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214723</v>
+        <v>561.8765786214702</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485307</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742463</v>
+        <v>54.65449286742443</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937739</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275963</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189914</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612158</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869308</v>
+        <v>74.18463860869281</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796269</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355191</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588169</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392062</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106805</v>
+        <v>377.4939606106792</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920073</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417328</v>
+        <v>298.3532140417317</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515936</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670483</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532785</v>
+        <v>42.9903120353277</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099327</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467228</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32321,7 +32321,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>232.75998908852</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>641.2555750770849</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N33" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>499.3768644016574</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>491.5977325265315</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>211.3773391483997</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,16 +34214,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O42" t="n">
-        <v>198.5607970756955</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35179,16 +35179,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35416,10 +35416,10 @@
         <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>778.0318315269849</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>794.4766961512966</v>
       </c>
       <c r="O11" t="n">
         <v>689.7596327870084</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>221.0446399742877</v>
       </c>
       <c r="N12" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>106.0328925632545</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839151</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236318222</v>
+        <v>1.539690236317426</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396441</v>
+        <v>285.7087110396424</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367802</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462728</v>
+        <v>632.0799921462697</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902991</v>
+        <v>735.3001107902955</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193561</v>
+        <v>751.8584478193525</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243202</v>
+        <v>696.4886512243168</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683847</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924453</v>
+        <v>371.5675334924732</v>
       </c>
       <c r="R14" t="n">
-        <v>129.866084390242</v>
+        <v>129.8660843902362</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.78523960077537</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.15822477541</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496679017</v>
+        <v>337.2977496679</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674336</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641972</v>
+        <v>509.9138629937495</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238486</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>92.97430510912707</v>
+        <v>557.4845759992804</v>
       </c>
       <c r="P15" t="n">
-        <v>427.902171207142</v>
+        <v>427.90217120714</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625092</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295415</v>
+        <v>81.04648326295353</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096362</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191331</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010468</v>
+        <v>426.2724270010454</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899091</v>
+        <v>421.6261329899078</v>
       </c>
       <c r="O16" t="n">
-        <v>373.261899706047</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066263</v>
+        <v>295.6317733066252</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998993</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M17" t="n">
         <v>735.300110790295</v>
@@ -35969,7 +35969,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>98.78558167418976</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>132.4173135558164</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N33" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>368.035152318324</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O42" t="n">
-        <v>55.96455263125101</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,10 +37953,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
